--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1243475.530649419</v>
+        <v>1239463.727917323</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140344</v>
+        <v>6432656.960140345</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>226.9594538262249</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>349.2656294801612</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T12" t="n">
         <v>136.1757056744559</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>152.8999186087154</v>
+        <v>140.5160255433865</v>
       </c>
       <c r="T13" t="n">
         <v>237.097464026797</v>
@@ -1587,13 +1587,13 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>163.4500464211472</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>173.4779215309415</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U14" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>285.1710023027205</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
         <v>71.96559361603954</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>152.8999186087154</v>
@@ -1821,16 +1821,16 @@
         <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>72.70231351519959</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>63.26808253165763</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>131.2031034770998</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>389.3452756638462</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T17" t="n">
         <v>210.0177446442482</v>
@@ -1903,13 +1903,13 @@
         <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>26.62073320630297</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>9.267814325145046</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.48994447064856</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.097464026797</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>141.2742262219567</v>
       </c>
       <c r="Y20" t="n">
-        <v>244.9726946029027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.63220474137481</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2253,10 +2253,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
-        <v>237.097464026797</v>
+        <v>25.89818884089001</v>
       </c>
       <c r="U22" t="n">
         <v>277.3339849899809</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>336.6466109322077</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U23" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>301.8822056430997</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2532,7 +2532,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989982</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>33.22741549789527</v>
       </c>
       <c r="C26" t="n">
-        <v>224.081614518768</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271553</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
-        <v>8.667530646470581</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>292.2496210282451</v>
       </c>
     </row>
     <row r="30">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3037,10 +3037,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>22.99866282661722</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442482</v>
+        <v>113.2735287894601</v>
       </c>
       <c r="U32" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898732</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3237,13 +3237,13 @@
         <v>6.489944470648574</v>
       </c>
       <c r="S34" t="n">
-        <v>152.8999186087154</v>
+        <v>152.8999186087152</v>
       </c>
       <c r="T34" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989981</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>346.7703677551378</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -3277,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>367.1687897402913</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.5164813097186</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>52.89632968959479</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
         <v>71.96559361603954</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3339849899809</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>161.6520658226412</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.235531072344701</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,19 +3663,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>141.8120347021375</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8999186087154</v>
+        <v>15.75775879579305</v>
       </c>
       <c r="T40" t="n">
         <v>237.097464026797</v>
@@ -3720,7 +3720,7 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>231.1875312436916</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>368.4201929459218</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3900,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>125.6923903011001</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>33.11067767695115</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.8999186087154</v>
@@ -3957,7 +3957,7 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>45.52262477672505</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>165.5973863402907</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>65.77875017782483</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3339849899809</v>
+        <v>136.2234008479268</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>894.7803300931902</v>
+        <v>1374.944229875663</v>
       </c>
       <c r="C11" t="n">
-        <v>467.8796001064903</v>
+        <v>1374.944229875663</v>
       </c>
       <c r="D11" t="n">
-        <v>467.8796001064903</v>
+        <v>951.6516090606628</v>
       </c>
       <c r="E11" t="n">
-        <v>467.8796001064903</v>
+        <v>951.6516090606628</v>
       </c>
       <c r="F11" t="n">
-        <v>42.75541829589047</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G11" t="n">
-        <v>42.75541829589047</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103653</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072049</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610008</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848324</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O11" t="n">
         <v>1626.510864636164</v>
@@ -5062,31 +5062,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R11" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="S11" t="n">
-        <v>2079.142258348449</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T11" t="n">
-        <v>2079.142258348449</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U11" t="n">
-        <v>2079.142258348449</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="V11" t="n">
-        <v>2079.142258348449</v>
+        <v>1780.281499920772</v>
       </c>
       <c r="W11" t="n">
-        <v>2079.142258348449</v>
+        <v>1780.281499920772</v>
       </c>
       <c r="X11" t="n">
-        <v>1667.422259516196</v>
+        <v>1780.281499920772</v>
       </c>
       <c r="Y11" t="n">
-        <v>1314.62869438472</v>
+        <v>1374.944229875663</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C12" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D12" t="n">
         <v>377.0871448858306</v>
@@ -5111,28 +5111,28 @@
         <v>178.739380841672</v>
       </c>
       <c r="G12" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426551</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109033</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283642</v>
+        <v>758.5074531333029</v>
       </c>
       <c r="M12" t="n">
         <v>1002.337654088804</v>
       </c>
       <c r="N12" t="n">
-        <v>1254.962719722999</v>
+        <v>1254.962719723</v>
       </c>
       <c r="O12" t="n">
         <v>1482.454583745858</v>
@@ -5162,10 +5162,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X12" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y12" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.8470976898196</v>
+        <v>450.7372730942841</v>
       </c>
       <c r="C13" t="n">
-        <v>618.8745345687356</v>
+        <v>278.7647099732001</v>
       </c>
       <c r="D13" t="n">
-        <v>618.8745345687356</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="E13" t="n">
-        <v>452.6663287215891</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="F13" t="n">
-        <v>280.8045544961495</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="G13" t="n">
         <v>115.4479370999708</v>
@@ -5196,19 +5196,19 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484809</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K13" t="n">
-        <v>413.7637441131362</v>
+        <v>491.685460761357</v>
       </c>
       <c r="L13" t="n">
-        <v>899.6471278963492</v>
+        <v>977.5688445445699</v>
       </c>
       <c r="M13" t="n">
-        <v>1428.745429307994</v>
+        <v>1506.667145956214</v>
       </c>
       <c r="N13" t="n">
         <v>1901.228790463882</v>
@@ -5223,28 +5223,28 @@
         <v>2137.770914794523</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.771053098196</v>
+        <v>1995.835535457769</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.27866519234</v>
+        <v>1756.343147551913</v>
       </c>
       <c r="U13" t="n">
-        <v>1457.143326818622</v>
+        <v>1476.207809178195</v>
       </c>
       <c r="V13" t="n">
-        <v>1457.143326818622</v>
+        <v>1194.496341786224</v>
       </c>
       <c r="W13" t="n">
-        <v>1182.290922991135</v>
+        <v>919.643937958737</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.189866000078</v>
+        <v>677.080041404542</v>
       </c>
       <c r="Y13" t="n">
-        <v>790.8470976898196</v>
+        <v>450.7372730942841</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1043.61014426184</v>
+        <v>1320.757269945333</v>
       </c>
       <c r="C14" t="n">
-        <v>1043.61014426184</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="D14" t="n">
-        <v>620.3175234468399</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E14" t="n">
-        <v>620.3175234468399</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F14" t="n">
-        <v>620.3175234468399</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G14" t="n">
-        <v>217.9856420645182</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103653</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072051</v>
+        <v>222.236059607204</v>
       </c>
       <c r="K14" t="n">
-        <v>437.069171561001</v>
+        <v>437.0691715609997</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848329</v>
+        <v>709.5851800848316</v>
       </c>
       <c r="M14" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N14" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q14" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>2079.14225834845</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U14" t="n">
-        <v>1820.94792342712</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="V14" t="n">
-        <v>1463.45850855337</v>
+        <v>1320.757269945333</v>
       </c>
       <c r="W14" t="n">
-        <v>1463.45850855337</v>
+        <v>1320.757269945333</v>
       </c>
       <c r="X14" t="n">
-        <v>1463.45850855337</v>
+        <v>1320.757269945333</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.45850855337</v>
+        <v>1320.757269945333</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C15" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D15" t="n">
         <v>377.0871448858306</v>
@@ -5348,37 +5348,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G15" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L15" t="n">
-        <v>758.5074531333021</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M15" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N15" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O15" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P15" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5399,10 +5399,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X15" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y15" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>610.3295332165253</v>
+        <v>926.6384156473183</v>
       </c>
       <c r="C16" t="n">
-        <v>610.3295332165253</v>
+        <v>754.6658525262343</v>
       </c>
       <c r="D16" t="n">
-        <v>447.012760343296</v>
+        <v>754.6658525262343</v>
       </c>
       <c r="E16" t="n">
-        <v>280.8045544961495</v>
+        <v>588.4576466790878</v>
       </c>
       <c r="F16" t="n">
-        <v>280.8045544961495</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G16" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="H16" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J16" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K16" t="n">
-        <v>491.6854607613572</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L16" t="n">
-        <v>601.1799509534052</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M16" t="n">
-        <v>1130.27825236505</v>
+        <v>1506.667145956214</v>
       </c>
       <c r="N16" t="n">
-        <v>1642.80643034845</v>
+        <v>1621.162401097735</v>
       </c>
       <c r="O16" t="n">
-        <v>1852.309315854113</v>
+        <v>1723.616423865865</v>
       </c>
       <c r="P16" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.143326818623</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="V16" t="n">
-        <v>1175.431859426652</v>
+        <v>1670.397484339258</v>
       </c>
       <c r="W16" t="n">
-        <v>900.5794555991647</v>
+        <v>1395.545080511771</v>
       </c>
       <c r="X16" t="n">
-        <v>836.6723015267833</v>
+        <v>1152.981183957576</v>
       </c>
       <c r="Y16" t="n">
-        <v>610.3295332165253</v>
+        <v>926.6384156473183</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>859.3260953369975</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="C17" t="n">
-        <v>859.3260953369975</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="D17" t="n">
-        <v>436.0334745219977</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="E17" t="n">
-        <v>436.0334745219977</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F17" t="n">
-        <v>436.0334745219977</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G17" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H17" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103653</v>
       </c>
       <c r="J17" t="n">
         <v>222.2360596072047</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848324</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M17" t="n">
         <v>1017.95803136565</v>
@@ -5542,25 +5542,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T17" t="n">
-        <v>1925.631778790233</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U17" t="n">
-        <v>1667.437443868903</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V17" t="n">
-        <v>1667.437443868903</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W17" t="n">
-        <v>1271.04609416925</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="X17" t="n">
-        <v>859.3260953369975</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="Y17" t="n">
-        <v>859.3260953369975</v>
+        <v>854.9280228494254</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377162</v>
+        <v>165.481020982128</v>
       </c>
       <c r="K18" t="n">
-        <v>289.8146695059645</v>
+        <v>313.2719753503762</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5074531333021</v>
+        <v>519.5225649727761</v>
       </c>
       <c r="M18" t="n">
-        <v>1002.337654088804</v>
+        <v>763.3527659282774</v>
       </c>
       <c r="N18" t="n">
-        <v>1254.962719722999</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O18" t="n">
-        <v>1482.454583745858</v>
+        <v>1243.469695585332</v>
       </c>
       <c r="P18" t="n">
-        <v>1661.89523739668</v>
+        <v>1422.910349236154</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.5068220226462</v>
+        <v>395.9511842536717</v>
       </c>
       <c r="C19" t="n">
-        <v>241.5068220226462</v>
+        <v>223.9786211325877</v>
       </c>
       <c r="D19" t="n">
-        <v>241.5068220226462</v>
+        <v>223.9786211325877</v>
       </c>
       <c r="E19" t="n">
-        <v>214.6171925213301</v>
+        <v>223.9786211325877</v>
       </c>
       <c r="F19" t="n">
-        <v>42.75541829589048</v>
+        <v>52.1168469071481</v>
       </c>
       <c r="G19" t="n">
         <v>42.75541829589048</v>
@@ -5676,22 +5676,22 @@
         <v>162.634922133069</v>
       </c>
       <c r="K19" t="n">
-        <v>244.4028516473351</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L19" t="n">
-        <v>353.8973418393832</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M19" t="n">
-        <v>882.9956432510278</v>
+        <v>1388.700612480482</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.396764209472</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O19" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q19" t="n">
         <v>2137.770914794524</v>
@@ -5700,25 +5700,25 @@
         <v>2131.215415329222</v>
       </c>
       <c r="S19" t="n">
-        <v>1976.771053098196</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.278665192341</v>
+        <v>1891.723027423367</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818623</v>
+        <v>1611.587689049648</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.431859426652</v>
+        <v>1329.876221657677</v>
       </c>
       <c r="W19" t="n">
-        <v>900.5794555991647</v>
+        <v>1055.02381783019</v>
       </c>
       <c r="X19" t="n">
-        <v>658.0155590449698</v>
+        <v>812.4599212759953</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.6727907347118</v>
+        <v>586.1171529657373</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1573.500757161562</v>
+        <v>1320.757269945333</v>
       </c>
       <c r="C20" t="n">
-        <v>1573.500757161562</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="D20" t="n">
-        <v>1573.500757161562</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E20" t="n">
-        <v>1147.523817309419</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F20" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G20" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H20" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
@@ -5788,16 +5788,16 @@
         <v>1820.94792342712</v>
       </c>
       <c r="V20" t="n">
-        <v>1820.94792342712</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="W20" t="n">
-        <v>1820.94792342712</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="X20" t="n">
-        <v>1820.94792342712</v>
+        <v>1320.757269945333</v>
       </c>
       <c r="Y20" t="n">
-        <v>1573.500757161562</v>
+        <v>1320.757269945333</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K21" t="n">
-        <v>289.8146695059645</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L21" t="n">
-        <v>496.0652591283643</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M21" t="n">
-        <v>739.8954600838658</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N21" t="n">
-        <v>992.5205257180613</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>386.589755642414</v>
+        <v>687.7376909960916</v>
       </c>
       <c r="C22" t="n">
-        <v>214.6171925213301</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="D22" t="n">
-        <v>214.6171925213301</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="E22" t="n">
-        <v>214.6171925213301</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="F22" t="n">
-        <v>42.75541829589048</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G22" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H22" t="n">
         <v>42.75541829589048</v>
@@ -5913,49 +5913,49 @@
         <v>162.634922133069</v>
       </c>
       <c r="K22" t="n">
-        <v>244.4028516473351</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>730.286235430548</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M22" t="n">
-        <v>944.9015090679522</v>
+        <v>1506.667145956215</v>
       </c>
       <c r="N22" t="n">
-        <v>1059.396764209472</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O22" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q22" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T22" t="n">
-        <v>1737.278665192341</v>
+        <v>1957.166765855528</v>
       </c>
       <c r="U22" t="n">
-        <v>1457.143326818623</v>
+        <v>1677.03142748181</v>
       </c>
       <c r="V22" t="n">
-        <v>1175.431859426652</v>
+        <v>1395.319960089839</v>
       </c>
       <c r="W22" t="n">
-        <v>900.5794555991647</v>
+        <v>1120.467556262352</v>
       </c>
       <c r="X22" t="n">
-        <v>658.0155590449698</v>
+        <v>877.9036597081572</v>
       </c>
       <c r="Y22" t="n">
-        <v>431.6727907347118</v>
+        <v>877.9036597081572</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1252.995442670109</v>
+        <v>1338.072542731004</v>
       </c>
       <c r="C23" t="n">
-        <v>826.0947126834092</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="D23" t="n">
-        <v>826.0947126834092</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E23" t="n">
-        <v>400.1177728312667</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F23" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="G23" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="H23" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K23" t="n">
-        <v>454.3844443466719</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L23" t="n">
-        <v>726.9004528705038</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M23" t="n">
-        <v>1386.038561855855</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N23" t="n">
-        <v>1700.150952125847</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O23" t="n">
-        <v>1994.591395126371</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P23" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q23" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278423</v>
       </c>
       <c r="R23" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="S23" t="n">
         <v>2944.905897632023</v>
       </c>
       <c r="T23" t="n">
-        <v>2732.766761627731</v>
+        <v>2732.766761627732</v>
       </c>
       <c r="U23" t="n">
-        <v>2474.572426706402</v>
+        <v>2474.572426706403</v>
       </c>
       <c r="V23" t="n">
-        <v>2474.572426706402</v>
+        <v>2169.640905854787</v>
       </c>
       <c r="W23" t="n">
-        <v>2078.181077006749</v>
+        <v>2169.640905854787</v>
       </c>
       <c r="X23" t="n">
-        <v>2078.181077006749</v>
+        <v>1757.920907022534</v>
       </c>
       <c r="Y23" t="n">
-        <v>1672.843806961639</v>
+        <v>1757.920907022534</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>615.7482796387122</v>
+        <v>615.7482796387123</v>
       </c>
       <c r="C24" t="n">
-        <v>498.242376156217</v>
+        <v>498.2423761562171</v>
       </c>
       <c r="D24" t="n">
         <v>394.4024176715021</v>
@@ -6056,40 +6056,40 @@
         <v>289.7004839444393</v>
       </c>
       <c r="F24" t="n">
-        <v>196.0546536273434</v>
+        <v>196.0546536273435</v>
       </c>
       <c r="G24" t="n">
-        <v>103.0748183734007</v>
+        <v>103.0748183734008</v>
       </c>
       <c r="H24" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916359</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140357</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M24" t="n">
-        <v>757.2107328695372</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N24" t="n">
-        <v>1009.835798503733</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O24" t="n">
-        <v>1237.327662526592</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1416.768316177413</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6110,10 +6110,10 @@
         <v>1047.84552393882</v>
       </c>
       <c r="X24" t="n">
-        <v>884.3681777054826</v>
+        <v>884.3681777054827</v>
       </c>
       <c r="Y24" t="n">
-        <v>744.675289058775</v>
+        <v>744.6752890587751</v>
       </c>
     </row>
     <row r="25">
@@ -6126,7 +6126,7 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D25" t="n">
         <v>771.9811253119058</v>
@@ -6138,46 +6138,46 @@
         <v>433.9111452393198</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H25" t="n">
         <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="J25" t="n">
         <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>397.2373026266567</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>883.1206864098697</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.632225509645</v>
+        <v>1412.632225509646</v>
       </c>
       <c r="N25" t="n">
-        <v>1925.160403493045</v>
+        <v>1925.160403493046</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2405.31675056438</v>
       </c>
       <c r="P25" t="n">
-        <v>2802.642500785833</v>
+        <v>2802.642500785834</v>
       </c>
       <c r="Q25" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="R25" t="n">
         <v>2996.979054612796</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381771</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U25" t="n">
         <v>2322.906966102196</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1814.476776080563</v>
+        <v>2441.009380748933</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.131710910091</v>
+        <v>2014.108650762233</v>
       </c>
       <c r="D26" t="n">
-        <v>1164.839090095091</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E26" t="n">
         <v>1164.839090095091</v>
@@ -6220,58 +6220,58 @@
         <v>337.3830269021693</v>
       </c>
       <c r="H26" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>454.3844443466719</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L26" t="n">
-        <v>1197.759246481001</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M26" t="n">
-        <v>1506.132097761818</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N26" t="n">
-        <v>2197.834060919214</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O26" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P26" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q26" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278423</v>
       </c>
       <c r="R26" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627732</v>
       </c>
       <c r="U26" t="n">
-        <v>3003.534554078097</v>
+        <v>2474.572426706403</v>
       </c>
       <c r="V26" t="n">
-        <v>2646.045139204346</v>
+        <v>2474.572426706403</v>
       </c>
       <c r="W26" t="n">
-        <v>2646.045139204346</v>
+        <v>2474.572426706403</v>
       </c>
       <c r="X26" t="n">
-        <v>2234.325140372093</v>
+        <v>2474.572426706403</v>
       </c>
       <c r="Y26" t="n">
-        <v>2234.325140372093</v>
+        <v>2474.572426706403</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>615.7482796387122</v>
+        <v>615.7482796387123</v>
       </c>
       <c r="C27" t="n">
-        <v>498.242376156217</v>
+        <v>498.2423761562171</v>
       </c>
       <c r="D27" t="n">
         <v>394.4024176715021</v>
@@ -6293,40 +6293,40 @@
         <v>289.7004839444393</v>
       </c>
       <c r="F27" t="n">
-        <v>196.0546536273434</v>
+        <v>196.0546536273435</v>
       </c>
       <c r="G27" t="n">
-        <v>103.0748183734007</v>
+        <v>103.0748183734008</v>
       </c>
       <c r="H27" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K27" t="n">
-        <v>569.5721362965736</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L27" t="n">
-        <v>775.8227259189734</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6347,10 +6347,10 @@
         <v>1047.84552393882</v>
       </c>
       <c r="X27" t="n">
-        <v>884.3681777054826</v>
+        <v>884.3681777054827</v>
       </c>
       <c r="Y27" t="n">
-        <v>744.675289058775</v>
+        <v>744.6752890587751</v>
       </c>
     </row>
     <row r="28">
@@ -6381,7 +6381,7 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I28" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="J28" t="n">
         <v>179.9501949187404</v>
@@ -6390,7 +6390,7 @@
         <v>509.0007335470286</v>
       </c>
       <c r="L28" t="n">
-        <v>994.8841173302415</v>
+        <v>883.12068640987</v>
       </c>
       <c r="M28" t="n">
         <v>1412.632225509645</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1344.143305154943</v>
+        <v>2017.716759933933</v>
       </c>
       <c r="C29" t="n">
-        <v>917.2425751682429</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="D29" t="n">
-        <v>493.9499543532431</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E29" t="n">
-        <v>493.9499543532431</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F29" t="n">
-        <v>68.82577254264334</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G29" t="n">
-        <v>68.82577254264334</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H29" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466719</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L29" t="n">
-        <v>726.9004528705038</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M29" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N29" t="n">
-        <v>1349.385694421312</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O29" t="n">
-        <v>1643.826137421836</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P29" t="n">
-        <v>2246.117289897964</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q29" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R29" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2791.395418073806</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>2533.201083152476</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="V29" t="n">
-        <v>2175.711668278725</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="W29" t="n">
-        <v>2175.711668278725</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="X29" t="n">
-        <v>1763.991669446473</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="Y29" t="n">
-        <v>1763.991669446473</v>
+        <v>2437.565124225463</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916359</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140357</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M30" t="n">
-        <v>757.2107328695372</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N30" t="n">
-        <v>1009.835798503733</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1237.327662526592</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6600,16 +6600,16 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G31" t="n">
         <v>268.5545278431409</v>
@@ -6630,16 +6630,16 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O31" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P31" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
@@ -6648,25 +6648,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S31" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T31" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U31" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V31" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W31" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y31" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1336.240981735404</v>
+        <v>1335.388223693861</v>
       </c>
       <c r="C32" t="n">
-        <v>909.3402517487041</v>
+        <v>908.4874937071615</v>
       </c>
       <c r="D32" t="n">
-        <v>486.0476309337044</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="E32" t="n">
-        <v>60.07069108156194</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F32" t="n">
         <v>60.07069108156194</v>
@@ -6700,52 +6700,52 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L32" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N32" t="n">
-        <v>1778.64810628565</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O32" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P32" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q32" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R32" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>2980.303581525958</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>2768.164445521667</v>
+        <v>2830.488191784083</v>
       </c>
       <c r="U32" t="n">
-        <v>2509.970110600338</v>
+        <v>2572.293856862754</v>
       </c>
       <c r="V32" t="n">
-        <v>2152.480695726587</v>
+        <v>2572.293856862754</v>
       </c>
       <c r="W32" t="n">
-        <v>1756.089346026934</v>
+        <v>2572.293856862754</v>
       </c>
       <c r="X32" t="n">
-        <v>1756.089346026934</v>
+        <v>2160.573858030501</v>
       </c>
       <c r="Y32" t="n">
-        <v>1756.089346026934</v>
+        <v>1755.236587985391</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916359</v>
+        <v>330.5872481360477</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140356</v>
+        <v>536.8378377584474</v>
       </c>
       <c r="M33" t="n">
-        <v>757.210732869537</v>
+        <v>780.6680387139488</v>
       </c>
       <c r="N33" t="n">
-        <v>1009.835798503732</v>
+        <v>1033.293104348144</v>
       </c>
       <c r="O33" t="n">
-        <v>1237.327662526591</v>
+        <v>1260.784968371003</v>
       </c>
       <c r="P33" t="n">
-        <v>1573.755009897445</v>
+        <v>1440.225622021825</v>
       </c>
       <c r="Q33" t="n">
         <v>1685.594465388265</v>
@@ -6846,10 +6846,10 @@
         <v>605.7729194647594</v>
       </c>
       <c r="F34" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393199</v>
       </c>
       <c r="G34" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431412</v>
       </c>
       <c r="H34" t="n">
         <v>132.7632098856423</v>
@@ -6861,10 +6861,10 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>397.2373026266569</v>
+        <v>397.2373026266571</v>
       </c>
       <c r="L34" t="n">
-        <v>883.1206864098698</v>
+        <v>883.12068640987</v>
       </c>
       <c r="M34" t="n">
         <v>1412.632225509645</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1262.902544357266</v>
+        <v>1667.422259516196</v>
       </c>
       <c r="C35" t="n">
-        <v>1262.902544357266</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D35" t="n">
-        <v>839.6099235422666</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E35" t="n">
-        <v>413.6329836901242</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F35" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G35" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M35" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N35" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S35" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T35" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U35" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V35" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W35" t="n">
-        <v>1682.750908648796</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X35" t="n">
-        <v>1682.750908648796</v>
+        <v>1667.422259516196</v>
       </c>
       <c r="Y35" t="n">
-        <v>1682.750908648796</v>
+        <v>1667.422259516196</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C36" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D36" t="n">
         <v>377.0871448858306</v>
@@ -7007,34 +7007,34 @@
         <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J36" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K36" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L36" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M36" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
         <v>1668.279192602594</v>
@@ -7058,10 +7058,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y36" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>281.6561429471172</v>
+        <v>641.999071624828</v>
       </c>
       <c r="C37" t="n">
-        <v>281.6561429471172</v>
+        <v>470.026508503744</v>
       </c>
       <c r="D37" t="n">
-        <v>281.6561429471172</v>
+        <v>470.026508503744</v>
       </c>
       <c r="E37" t="n">
-        <v>115.4479370999708</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F37" t="n">
-        <v>115.4479370999708</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G37" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="H37" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J37" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K37" t="n">
-        <v>166.4811349991142</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L37" t="n">
-        <v>415.8032076563076</v>
+        <v>652.364518782327</v>
       </c>
       <c r="M37" t="n">
-        <v>944.9015090679522</v>
+        <v>1181.462820193971</v>
       </c>
       <c r="N37" t="n">
-        <v>1059.396764209472</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O37" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.278665192341</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.143326818623</v>
+        <v>1857.635576420805</v>
       </c>
       <c r="V37" t="n">
-        <v>1175.431859426652</v>
+        <v>1575.924109028834</v>
       </c>
       <c r="W37" t="n">
-        <v>900.5794555991647</v>
+        <v>1301.071705201347</v>
       </c>
       <c r="X37" t="n">
-        <v>658.0155590449698</v>
+        <v>1058.507808647152</v>
       </c>
       <c r="Y37" t="n">
-        <v>431.6727907347118</v>
+        <v>832.1650403368938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1312.585280457884</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="C38" t="n">
-        <v>885.6845504711844</v>
+        <v>1294.752113487998</v>
       </c>
       <c r="D38" t="n">
-        <v>722.3996354988195</v>
+        <v>871.4594926729985</v>
       </c>
       <c r="E38" t="n">
-        <v>722.3996354988195</v>
+        <v>870.211481488812</v>
       </c>
       <c r="F38" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610011</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848329</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M38" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N38" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q38" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R38" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T38" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U38" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V38" t="n">
-        <v>2137.770914794524</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="W38" t="n">
-        <v>2137.770914794524</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="X38" t="n">
-        <v>2137.770914794524</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="Y38" t="n">
-        <v>1732.433644749414</v>
+        <v>1721.652843474698</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C39" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D39" t="n">
         <v>377.0871448858306</v>
@@ -7244,37 +7244,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J39" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K39" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L39" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M39" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N39" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7295,10 +7295,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y39" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>523.2182894146174</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C40" t="n">
-        <v>523.2182894146174</v>
+        <v>214.61719252133</v>
       </c>
       <c r="D40" t="n">
-        <v>523.2182894146174</v>
+        <v>214.61719252133</v>
       </c>
       <c r="E40" t="n">
-        <v>379.9738099175088</v>
+        <v>214.61719252133</v>
       </c>
       <c r="F40" t="n">
-        <v>208.1120356920692</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G40" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J40" t="n">
-        <v>84.71320548484809</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K40" t="n">
-        <v>221.0319991956869</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L40" t="n">
-        <v>330.5264893877348</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M40" t="n">
-        <v>859.6247907993795</v>
+        <v>1506.667145956214</v>
       </c>
       <c r="N40" t="n">
-        <v>1372.15296878278</v>
+        <v>1621.162401097735</v>
       </c>
       <c r="O40" t="n">
-        <v>1852.309315854113</v>
+        <v>1723.616423865865</v>
       </c>
       <c r="P40" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q40" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S40" t="n">
-        <v>1976.771053098196</v>
+        <v>2121.853986717964</v>
       </c>
       <c r="T40" t="n">
-        <v>1737.278665192341</v>
+        <v>1882.361598812109</v>
       </c>
       <c r="U40" t="n">
-        <v>1457.143326818623</v>
+        <v>1602.226260438391</v>
       </c>
       <c r="V40" t="n">
-        <v>1457.143326818623</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W40" t="n">
-        <v>1182.290922991136</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X40" t="n">
-        <v>939.7270264369409</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y40" t="n">
-        <v>713.384258126683</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>701.4023589385019</v>
+        <v>1667.422259516196</v>
       </c>
       <c r="C41" t="n">
-        <v>467.8796001064903</v>
+        <v>1240.521529529497</v>
       </c>
       <c r="D41" t="n">
-        <v>467.8796001064903</v>
+        <v>817.2289087144968</v>
       </c>
       <c r="E41" t="n">
-        <v>467.8796001064903</v>
+        <v>817.2289087144968</v>
       </c>
       <c r="F41" t="n">
-        <v>42.75541829589048</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103618</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K41" t="n">
         <v>437.0691715610004</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848329</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M41" t="n">
         <v>1017.95803136565</v>
@@ -7429,34 +7429,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q41" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S41" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U41" t="n">
-        <v>1867.003122344158</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V41" t="n">
-        <v>1509.513707470408</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W41" t="n">
-        <v>1113.122357770755</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X41" t="n">
-        <v>701.4023589385019</v>
+        <v>1667.422259516196</v>
       </c>
       <c r="Y41" t="n">
-        <v>701.4023589385019</v>
+        <v>1667.422259516196</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N42" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P42" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
         <v>1668.279192602594</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>749.5610577248754</v>
+        <v>248.0623214879474</v>
       </c>
       <c r="C43" t="n">
-        <v>577.5884946037913</v>
+        <v>248.0623214879474</v>
       </c>
       <c r="D43" t="n">
-        <v>414.271721730562</v>
+        <v>248.0623214879474</v>
       </c>
       <c r="E43" t="n">
-        <v>414.271721730562</v>
+        <v>248.0623214879474</v>
       </c>
       <c r="F43" t="n">
-        <v>242.4099475051225</v>
+        <v>76.2005472625078</v>
       </c>
       <c r="G43" t="n">
-        <v>115.4479370999708</v>
+        <v>76.2005472625078</v>
       </c>
       <c r="H43" t="n">
-        <v>115.4479370999708</v>
+        <v>76.2005472625078</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J43" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484807</v>
       </c>
       <c r="K43" t="n">
         <v>413.7637441131362</v>
       </c>
       <c r="L43" t="n">
-        <v>523.2582343051843</v>
+        <v>899.6471278963492</v>
       </c>
       <c r="M43" t="n">
-        <v>1052.356535716829</v>
+        <v>1015.623186533303</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.884713700229</v>
+        <v>1130.118441674823</v>
       </c>
       <c r="O43" t="n">
-        <v>1852.309315854113</v>
+        <v>1610.274788746156</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.87886150226</v>
+        <v>2007.60053896761</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R43" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S43" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T43" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U43" t="n">
-        <v>1457.143326818623</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V43" t="n">
-        <v>1457.143326818623</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W43" t="n">
-        <v>1182.290922991136</v>
+        <v>907.1349550644659</v>
       </c>
       <c r="X43" t="n">
-        <v>939.7270264369409</v>
+        <v>664.571058510271</v>
       </c>
       <c r="Y43" t="n">
-        <v>939.7270264369409</v>
+        <v>438.228290200013</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>870.211481488812</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="C44" t="n">
-        <v>870.211481488812</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="D44" t="n">
-        <v>870.211481488812</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="E44" t="n">
         <v>870.211481488812</v>
@@ -7639,10 +7639,10 @@
         <v>445.0872996782122</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I44" t="n">
         <v>84.39494262103631</v>
@@ -7666,34 +7666,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q44" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S44" t="n">
-        <v>2091.788465525105</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T44" t="n">
-        <v>2091.788465525105</v>
+        <v>1911.872171136034</v>
       </c>
       <c r="U44" t="n">
-        <v>2091.788465525105</v>
+        <v>1653.677836214705</v>
       </c>
       <c r="V44" t="n">
-        <v>2091.788465525105</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="W44" t="n">
-        <v>1695.397115825452</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="X44" t="n">
-        <v>1695.397115825452</v>
+        <v>1296.188421340954</v>
       </c>
       <c r="Y44" t="n">
-        <v>1290.059845780342</v>
+        <v>1296.188421340954</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C45" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D45" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E45" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F45" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I45" t="n">
-        <v>385.1054302494206</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J45" t="n">
-        <v>464.1447550896847</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K45" t="n">
-        <v>611.9357094579329</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L45" t="n">
-        <v>818.1862990803327</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M45" t="n">
-        <v>1062.016500035834</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N45" t="n">
-        <v>1314.641565670029</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O45" t="n">
-        <v>1542.133429692889</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P45" t="n">
-        <v>1721.57408334371</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.855732839468</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S45" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T45" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U45" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V45" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W45" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y45" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.5560279306989</v>
+        <v>580.7642337778453</v>
       </c>
       <c r="C46" t="n">
-        <v>414.5560279306989</v>
+        <v>580.7642337778453</v>
       </c>
       <c r="D46" t="n">
-        <v>251.2392550574696</v>
+        <v>417.447460904616</v>
       </c>
       <c r="E46" t="n">
         <v>251.2392550574696</v>
@@ -7803,55 +7803,55 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J46" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484807</v>
       </c>
       <c r="K46" t="n">
         <v>166.4811349991142</v>
       </c>
       <c r="L46" t="n">
-        <v>481.8999867656338</v>
+        <v>481.8999867656335</v>
       </c>
       <c r="M46" t="n">
         <v>1010.998288177278</v>
       </c>
       <c r="N46" t="n">
-        <v>1523.526466160679</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O46" t="n">
         <v>2003.682813232012</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R46" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S46" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T46" t="n">
-        <v>1910.327871100394</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U46" t="n">
-        <v>1630.192532726675</v>
+        <v>1606.234769861756</v>
       </c>
       <c r="V46" t="n">
-        <v>1348.481065334704</v>
+        <v>1324.523302469785</v>
       </c>
       <c r="W46" t="n">
-        <v>1073.628661507217</v>
+        <v>1049.670898642298</v>
       </c>
       <c r="X46" t="n">
-        <v>831.0647649530224</v>
+        <v>807.1070020881033</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.7219966427645</v>
+        <v>580.7642337778453</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>265.0931252575141</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8859,7 +8859,7 @@
         <v>417.2951947219101</v>
       </c>
       <c r="N13" t="n">
-        <v>361.6041474892603</v>
+        <v>282.8953427940881</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>265.0931252575129</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219102</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>108.1301643813463</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>282.8953427940875</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>265.0931252575129</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219102</v>
+        <v>298.1370800999576</v>
       </c>
       <c r="N19" t="n">
-        <v>62.53117759285296</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>99.635570707526</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>282.895342794088</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>354.3083411156913</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>502.710210902391</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>307.5560500126521</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,13 +9798,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>136.8880587814648</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>304.820252063082</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>475.6149430409062</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>381.4036089771762</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>307.5560500126521</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K27" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>267.2984471422155</v>
       </c>
       <c r="M28" t="n">
-        <v>304.8202520630808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>360.2014738739056</v>
+        <v>307.556050012651</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>304.8202520630808</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891724</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>433.5983958225633</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>423.4201561955193</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10509,7 +10509,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>136.888058781465</v>
+        <v>136.8880587814653</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.5724178990225</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10749,22 +10749,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>141.2399822880256</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>417.2951947219103</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>209.3311033197066</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>55.10188302684108</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.2951947219103</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>282.8953427940875</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.5724178990225</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11223,22 +11223,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.2951947219103</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>186.8389690765189</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>81.46648476014973</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>208.0044056307794</v>
+        <v>208.0044056307791</v>
       </c>
       <c r="M46" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>193.9134861662689</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U11" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>52.01826786449732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
         <v>134.4334047779237</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>12.38389306532892</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>76.6882111675057</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>101.0612909314598</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>68.74351842229248</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23655,22 +23655,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>206.1920392028518</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>176.8701750569953</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>290.5140669765212</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>8.96328690465225</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>137.925390582372</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>154.4352368970719</v>
       </c>
       <c r="H19" t="n">
         <v>134.4334047779237</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>266.3285726219735</v>
       </c>
       <c r="Y20" t="n">
-        <v>156.3112027417559</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>143.6321042835702</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>71.96559361603954</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>211.199275185907</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>84.22632906028605</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.3085625684984</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>52.03231508191328</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.4224651507195</v>
       </c>
       <c r="C26" t="n">
-        <v>198.5501081680649</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>265.8716818159307</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>109.0342763164135</v>
       </c>
     </row>
     <row r="30">
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.3085625684984</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.04370705499643</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>96.74421585478818</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>75.86135493169508</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>53.7041502522024</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.3085625684984</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U35" t="n">
         <v>255.612391572116</v>
@@ -25216,10 +25216,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.74782771522635</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>111.6497940990802</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>257.4076287842085</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>420.4816393812763</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.0177446442482</v>
@@ -25450,7 +25450,7 @@
         <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>22.73408908653747</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
         <v>134.4334047779237</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>137.1421598129224</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,19 +25630,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>191.4441914431413</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>52.45274704657197</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>274.5392124624013</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>38.01066092111684</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>38.85491593908839</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25873,7 +25873,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>12.51974510488861</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>44.42035830395753</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>171.3187138489722</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>141.1105841420541</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327340.621508273</v>
+        <v>327340.6215082729</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>445613.0588386978</v>
+        <v>445613.058838698</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>445613.0588386977</v>
+        <v>445613.058838698</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>445613.0588386977</v>
+        <v>445613.0588386978</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>327340.6215082731</v>
+        <v>327340.621508273</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>327340.6215082731</v>
+        <v>327340.6215082729</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>327340.6215082731</v>
+        <v>327340.621508273</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>327340.6215082731</v>
+        <v>327340.621508273</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487693.629700738</v>
+        <v>487693.6297007379</v>
       </c>
       <c r="C2" t="n">
         <v>487693.6297007379</v>
       </c>
       <c r="D2" t="n">
-        <v>487693.6297007381</v>
+        <v>487693.6297007379</v>
       </c>
       <c r="E2" t="n">
-        <v>290007.5736252776</v>
+        <v>290007.5736252777</v>
       </c>
       <c r="F2" t="n">
         <v>290007.5736252777</v>
@@ -26334,25 +26334,25 @@
         <v>290007.5736252777</v>
       </c>
       <c r="I2" t="n">
-        <v>363974.7931475447</v>
+        <v>363974.7931475451</v>
       </c>
       <c r="J2" t="n">
-        <v>363974.7931475448</v>
+        <v>363974.7931475451</v>
       </c>
       <c r="K2" t="n">
-        <v>363974.7931475447</v>
+        <v>363974.793147545</v>
       </c>
       <c r="L2" t="n">
-        <v>363974.7931475448</v>
+        <v>363974.7931475451</v>
       </c>
       <c r="M2" t="n">
-        <v>290007.5736252776</v>
+        <v>290007.5736252777</v>
       </c>
       <c r="N2" t="n">
         <v>290007.5736252777</v>
       </c>
       <c r="O2" t="n">
-        <v>290007.5736252776</v>
+        <v>290007.5736252777</v>
       </c>
       <c r="P2" t="n">
         <v>290007.5736252777</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222537</v>
+        <v>556689.6559222534</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048175</v>
+        <v>57556.18318048181</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160771</v>
+        <v>79247.32527160764</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>322739.0782821833</v>
       </c>
       <c r="E4" t="n">
-        <v>20716.52783166093</v>
+        <v>20716.52783166095</v>
       </c>
       <c r="F4" t="n">
         <v>20716.52783166093</v>
@@ -26438,28 +26438,28 @@
         <v>20716.52783166094</v>
       </c>
       <c r="I4" t="n">
-        <v>60803.91340972754</v>
+        <v>60803.91340972761</v>
       </c>
       <c r="J4" t="n">
-        <v>60803.91340972754</v>
+        <v>60803.9134097276</v>
       </c>
       <c r="K4" t="n">
-        <v>60803.91340972755</v>
+        <v>60803.91340972757</v>
       </c>
       <c r="L4" t="n">
-        <v>60803.91340972756</v>
+        <v>60803.91340972757</v>
       </c>
       <c r="M4" t="n">
-        <v>20716.52783166095</v>
+        <v>20716.52783166093</v>
       </c>
       <c r="N4" t="n">
-        <v>20716.52783166094</v>
+        <v>20716.52783166093</v>
       </c>
       <c r="O4" t="n">
         <v>20716.52783166094</v>
       </c>
       <c r="P4" t="n">
-        <v>20716.52783166095</v>
+        <v>20716.52783166094</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>43269.71441650123</v>
+      </c>
+      <c r="F5" t="n">
         <v>43269.71441650124</v>
-      </c>
-      <c r="F5" t="n">
-        <v>43269.71441650125</v>
       </c>
       <c r="G5" t="n">
         <v>43269.71441650125</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="I5" t="n">
-        <v>56429.32173361156</v>
+        <v>56429.32173361158</v>
       </c>
       <c r="J5" t="n">
-        <v>56429.32173361156</v>
+        <v>56429.32173361158</v>
       </c>
       <c r="K5" t="n">
         <v>56429.32173361156</v>
@@ -26502,16 +26502,16 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131326.9514185548</v>
+        <v>131305.2377770583</v>
       </c>
       <c r="C6" t="n">
-        <v>131326.9514185547</v>
+        <v>131305.2377770582</v>
       </c>
       <c r="D6" t="n">
-        <v>131326.9514185548</v>
+        <v>131305.2377770583</v>
       </c>
       <c r="E6" t="n">
-        <v>-330668.3245451383</v>
+        <v>-331271.4677633267</v>
       </c>
       <c r="F6" t="n">
-        <v>226021.3313771155</v>
+        <v>225418.1881589265</v>
       </c>
       <c r="G6" t="n">
-        <v>226021.3313771156</v>
+        <v>225418.1881589267</v>
       </c>
       <c r="H6" t="n">
-        <v>226021.3313771155</v>
+        <v>225418.1881589267</v>
       </c>
       <c r="I6" t="n">
-        <v>189185.3748237239</v>
+        <v>188799.782251189</v>
       </c>
       <c r="J6" t="n">
-        <v>246741.5580042057</v>
+        <v>246355.9654316707</v>
       </c>
       <c r="K6" t="n">
-        <v>246741.5580042056</v>
+        <v>246355.9654316707</v>
       </c>
       <c r="L6" t="n">
-        <v>246741.5580042057</v>
+        <v>246355.9654316708</v>
       </c>
       <c r="M6" t="n">
-        <v>146774.0061055077</v>
+        <v>146170.862887319</v>
       </c>
       <c r="N6" t="n">
-        <v>226021.3313771155</v>
+        <v>225418.1881589267</v>
       </c>
       <c r="O6" t="n">
-        <v>226021.3313771154</v>
+        <v>225418.1881589267</v>
       </c>
       <c r="P6" t="n">
-        <v>226021.3313771155</v>
+        <v>225418.1881589266</v>
       </c>
     </row>
   </sheetData>
@@ -26746,25 +26746,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="F3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="L3" t="n">
         <v>494.2934179644261</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="G4" t="n">
         <v>534.442728698631</v>
@@ -26810,10 +26810,10 @@
         <v>534.442728698631</v>
       </c>
       <c r="I4" t="n">
-        <v>750.8836385195242</v>
+        <v>750.8836385195244</v>
       </c>
       <c r="J4" t="n">
-        <v>750.8836385195242</v>
+        <v>750.8836385195244</v>
       </c>
       <c r="K4" t="n">
         <v>750.8836385195242</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="O4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="P4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208932</v>
+        <v>216.4409098208935</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777375</v>
+        <v>318.0018188777373</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H11" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J11" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K11" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L11" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N11" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O11" t="n">
-        <v>334.8055482454421</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R11" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H12" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.60569180208251</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J12" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K12" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M12" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P12" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R12" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S12" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I13" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K13" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L13" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M13" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N13" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O13" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P13" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S13" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T13" t="n">
-        <v>3.808490269561971</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H14" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J14" t="n">
         <v>168.6534109867667</v>
@@ -32004,16 +32004,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L14" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N14" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O14" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P14" t="n">
         <v>285.7487894273646</v>
@@ -32025,10 +32025,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U14" t="n">
         <v>0.1589687374357952</v>
@@ -32074,7 +32074,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J15" t="n">
         <v>100.4488161921859</v>
@@ -32083,7 +32083,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M15" t="n">
         <v>269.3899127906122</v>
@@ -32092,25 +32092,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q15" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R15" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S15" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I16" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L16" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M16" t="n">
         <v>139.7229738682065</v>
@@ -32174,22 +32174,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P16" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S16" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T16" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H17" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
@@ -32241,16 +32241,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L17" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O17" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
         <v>285.7487894273646</v>
@@ -32262,10 +32262,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U17" t="n">
         <v>0.1589687374357952</v>
@@ -32311,7 +32311,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
@@ -32320,7 +32320,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M18" t="n">
         <v>269.3899127906122</v>
@@ -32329,25 +32329,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q18" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R18" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S18" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I19" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L19" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M19" t="n">
         <v>139.7229738682065</v>
@@ -32411,22 +32411,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S19" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T19" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,10 +32466,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H20" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
@@ -32478,19 +32478,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L20" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M20" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N20" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O20" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P20" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q20" t="n">
         <v>214.5854405596218</v>
@@ -32499,13 +32499,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
@@ -32572,19 +32572,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S21" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32648,22 +32648,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P22" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R22" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S22" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T22" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H23" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
@@ -32715,19 +32715,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M23" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O23" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q23" t="n">
         <v>214.5854405596218</v>
@@ -32736,13 +32736,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
@@ -32809,19 +32809,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S24" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32885,22 +32885,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R25" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S25" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T25" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,10 +32940,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H26" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
@@ -32952,19 +32952,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M26" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O26" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P26" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q26" t="n">
         <v>214.5854405596218</v>
@@ -32973,13 +32973,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
@@ -33046,19 +33046,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S27" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33122,22 +33122,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R28" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S28" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T28" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,10 +33177,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H29" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
@@ -33189,19 +33189,19 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M29" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O29" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q29" t="n">
         <v>214.5854405596218</v>
@@ -33210,13 +33210,13 @@
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
@@ -33283,19 +33283,19 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S30" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33359,22 +33359,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R31" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S31" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T31" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,10 +33414,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H32" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
@@ -33432,13 +33432,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O32" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q32" t="n">
         <v>214.5854405596218</v>
@@ -33450,10 +33450,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33520,10 +33520,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S33" t="n">
         <v>19.74842099131456</v>
@@ -33532,7 +33532,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I34" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33599,13 +33599,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R34" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S34" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T34" t="n">
         <v>3.80849026956197</v>
@@ -33651,10 +33651,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H35" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J35" t="n">
         <v>168.6534109867667</v>
@@ -33669,13 +33669,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O35" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q35" t="n">
         <v>214.5854405596218</v>
@@ -33687,10 +33687,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33757,10 +33757,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S36" t="n">
         <v>19.74842099131456</v>
@@ -33769,7 +33769,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I37" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
@@ -33836,13 +33836,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R37" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S37" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T37" t="n">
         <v>3.80849026956197</v>
@@ -34137,7 +34137,7 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112417</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M41" t="n">
         <v>348.9189914659137</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J11" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L11" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M11" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O11" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.43330505208251</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885257</v>
+        <v>344.9308271163666</v>
       </c>
       <c r="K12" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L12" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M12" t="n">
-        <v>511.3862575357973</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O12" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P12" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L13" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M13" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N13" t="n">
-        <v>477.2559203594827</v>
+        <v>398.5471156643104</v>
       </c>
       <c r="O13" t="n">
         <v>103.4889118870001</v>
       </c>
       <c r="P13" t="n">
-        <v>85.42378348297618</v>
+        <v>85.42378348297612</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J14" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K14" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L14" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M14" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N14" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O14" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P14" t="n">
         <v>248.1734276171333</v>
@@ -35670,7 +35670,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885258</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K15" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L15" t="n">
-        <v>473.4270541690279</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M15" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O15" t="n">
         <v>229.7897616392516</v>
@@ -35749,7 +35749,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K16" t="n">
-        <v>332.3742814427154</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L16" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M16" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N16" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6190762683465</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P16" t="n">
-        <v>85.42378348297619</v>
+        <v>368.3191262770636</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L17" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M17" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O17" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
         <v>248.1734276171333</v>
@@ -35907,7 +35907,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885258</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K18" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>473.4270541690279</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M18" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O18" t="n">
         <v>229.7897616392516</v>
@@ -35983,10 +35983,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317577</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136926</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K19" t="n">
-        <v>82.59386819622841</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L19" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M19" t="n">
-        <v>534.442728698631</v>
+        <v>415.2846140766783</v>
       </c>
       <c r="N19" t="n">
-        <v>178.1829504630754</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O19" t="n">
-        <v>485.0064111831651</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J20" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L20" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N20" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O20" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L21" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M21" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O21" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P21" t="n">
-        <v>446.3463107633935</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
-        <v>82.5938681962284</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M22" t="n">
-        <v>216.7831046842467</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N22" t="n">
-        <v>115.6517728702224</v>
+        <v>398.5471156643104</v>
       </c>
       <c r="O22" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P22" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J23" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L23" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M23" t="n">
-        <v>665.7960696821732</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O23" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P23" t="n">
-        <v>750.8836385195242</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550238</v>
+        <v>486.0168159676758</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709455</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L24" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M24" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O24" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P24" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q24" t="n">
-        <v>378.062272217937</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
-        <v>219.4819269776933</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M25" t="n">
-        <v>534.8601405048236</v>
+        <v>421.9677860398027</v>
       </c>
       <c r="N25" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O25" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
         <v>202.9212659517818</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L26" t="n">
-        <v>750.8836385195242</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N26" t="n">
-        <v>698.6888516741371</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O26" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550238</v>
+        <v>486.0168159676758</v>
       </c>
       <c r="R26" t="n">
-        <v>89.79009951709455</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K27" t="n">
-        <v>414.3769175486727</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L27" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O27" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P27" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,19 +36758,19 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
-        <v>490.7912967507202</v>
+        <v>377.8989422856984</v>
       </c>
       <c r="M28" t="n">
-        <v>421.9677860398015</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N28" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O28" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q28" t="n">
         <v>202.9212659517818</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L29" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N29" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O29" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
-        <v>608.3749014910388</v>
+        <v>555.7294776297842</v>
       </c>
       <c r="Q29" t="n">
-        <v>675.2778440992007</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709455</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885257</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L30" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M30" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O30" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P30" t="n">
-        <v>446.3463107633935</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,22 +36995,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L31" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M31" t="n">
-        <v>421.9677860398015</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N31" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O31" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L32" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M32" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N32" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O32" t="n">
-        <v>720.8347450849373</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P32" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.4607659550238</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R32" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J33" t="n">
         <v>79.83770185885255</v>
@@ -37162,13 +37162,13 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O33" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P33" t="n">
-        <v>339.8256034049031</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.969146960424</v>
+        <v>247.8473165317577</v>
       </c>
       <c r="R33" t="n">
         <v>148.85927498986</v>
@@ -37229,16 +37229,16 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
-        <v>219.4819269776934</v>
+        <v>219.4819269776937</v>
       </c>
       <c r="L34" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M34" t="n">
         <v>534.8601405048234</v>
       </c>
       <c r="N34" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O34" t="n">
         <v>485.006411183165</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J35" t="n">
         <v>139.2334515011802</v>
@@ -37311,22 +37311,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L35" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664825</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O35" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R35" t="n">
         <v>89.79009951709452</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
@@ -37399,13 +37399,13 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P36" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q36" t="n">
-        <v>271.5415648594465</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R36" t="n">
         <v>148.85927498986</v>
@@ -37469,22 +37469,22 @@
         <v>82.59386819622839</v>
       </c>
       <c r="L37" t="n">
-        <v>251.8404774315084</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M37" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N37" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O37" t="n">
-        <v>485.006411183165</v>
+        <v>312.8200152067067</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876733</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
         <v>275.268695478618</v>
@@ -37566,7 +37566,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
@@ -37639,13 +37639,13 @@
         <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q39" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K40" t="n">
-        <v>137.6957512230695</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L40" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M40" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N40" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O40" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P40" t="n">
-        <v>85.42378348297616</v>
+        <v>368.3191262770636</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L41" t="n">
-        <v>275.2686954786187</v>
+        <v>275.2686954786183</v>
       </c>
       <c r="M41" t="n">
         <v>311.4877285664818</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
@@ -37879,7 +37879,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>271.5415648594465</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
         <v>148.85927498986</v>
@@ -37943,22 +37943,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L43" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M43" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N43" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O43" t="n">
-        <v>290.327880963519</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
-        <v>85.42378348297616</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>131.4852281079931</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
@@ -38116,10 +38116,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q45" t="n">
-        <v>378.0622722179372</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,10 +38180,10 @@
         <v>82.59386819622839</v>
       </c>
       <c r="L46" t="n">
-        <v>318.6049007742622</v>
+        <v>318.6049007742619</v>
       </c>
       <c r="M46" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N46" t="n">
         <v>517.705230286263</v>
